--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Selp</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>765.807313381763</v>
+        <v>6.159891999999999</v>
       </c>
       <c r="H2">
-        <v>765.807313381763</v>
+        <v>18.479676</v>
       </c>
       <c r="I2">
-        <v>0.9026430606268641</v>
+        <v>0.007079533182016282</v>
       </c>
       <c r="J2">
-        <v>0.9026430606268641</v>
+        <v>0.007079533182016282</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.65593378014908</v>
+        <v>17.90215733333334</v>
       </c>
       <c r="N2">
-        <v>7.65593378014908</v>
+        <v>53.70647200000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9729544377046332</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9729544377046332</v>
       </c>
       <c r="Q2">
-        <v>5862.970079604652</v>
+        <v>110.2753557403413</v>
       </c>
       <c r="R2">
-        <v>5862.970079604652</v>
+        <v>992.478201663072</v>
       </c>
       <c r="S2">
-        <v>0.9026430606268641</v>
+        <v>0.006888063226319944</v>
       </c>
       <c r="T2">
-        <v>0.9026430606268641</v>
+        <v>0.006888063226319944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.332579589489433</v>
+        <v>6.159891999999999</v>
       </c>
       <c r="H3">
-        <v>0.332579589489433</v>
+        <v>18.479676</v>
       </c>
       <c r="I3">
-        <v>0.0003920054735872111</v>
+        <v>0.007079533182016282</v>
       </c>
       <c r="J3">
-        <v>0.0003920054735872111</v>
+        <v>0.007079533182016282</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>7.65593378014908</v>
+        <v>0.01128333333333333</v>
       </c>
       <c r="N3">
-        <v>7.65593378014908</v>
+        <v>0.03385</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0006132316365204891</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.0006132316365204891</v>
       </c>
       <c r="Q3">
-        <v>2.546207313760264</v>
+        <v>0.06950411473333332</v>
       </c>
       <c r="R3">
-        <v>2.546207313760264</v>
+        <v>0.6255370325999999</v>
       </c>
       <c r="S3">
-        <v>0.0003920054735872111</v>
+        <v>4.34139371900895E-06</v>
       </c>
       <c r="T3">
-        <v>0.0003920054735872111</v>
+        <v>4.34139371900895E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>6.159891999999999</v>
+      </c>
+      <c r="H4">
+        <v>18.479676</v>
+      </c>
+      <c r="I4">
+        <v>0.007079533182016282</v>
+      </c>
+      <c r="J4">
+        <v>0.007079533182016282</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.3789536666666666</v>
+      </c>
+      <c r="N4">
+        <v>1.136861</v>
+      </c>
+      <c r="O4">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="P4">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="Q4">
+        <v>2.334313659670666</v>
+      </c>
+      <c r="R4">
+        <v>21.00882293703599</v>
+      </c>
+      <c r="S4">
+        <v>0.0001458068302743348</v>
+      </c>
+      <c r="T4">
+        <v>0.0001458068302743348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>6.159891999999999</v>
+      </c>
+      <c r="H5">
+        <v>18.479676</v>
+      </c>
+      <c r="I5">
+        <v>0.007079533182016282</v>
+      </c>
+      <c r="J5">
+        <v>0.007079533182016282</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1073956666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.322187</v>
+      </c>
+      <c r="O5">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="P5">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="Q5">
+        <v>0.6615457079346666</v>
+      </c>
+      <c r="R5">
+        <v>5.953911371412</v>
+      </c>
+      <c r="S5">
+        <v>4.132173170299371E-05</v>
+      </c>
+      <c r="T5">
+        <v>4.132173170299371E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>82.2655806718154</v>
-      </c>
-      <c r="H4">
-        <v>82.2655806718154</v>
-      </c>
-      <c r="I4">
-        <v>0.09696493389954872</v>
-      </c>
-      <c r="J4">
-        <v>0.09696493389954872</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.65593378014908</v>
-      </c>
-      <c r="N4">
-        <v>7.65593378014908</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>629.8198380089308</v>
-      </c>
-      <c r="R4">
-        <v>629.8198380089308</v>
-      </c>
-      <c r="S4">
-        <v>0.09696493389954872</v>
-      </c>
-      <c r="T4">
-        <v>0.09696493389954872</v>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>771.4717003333334</v>
+      </c>
+      <c r="H6">
+        <v>2314.415101</v>
+      </c>
+      <c r="I6">
+        <v>0.8866485810946614</v>
+      </c>
+      <c r="J6">
+        <v>0.8866485810946614</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>17.90215733333334</v>
+      </c>
+      <c r="N6">
+        <v>53.70647200000001</v>
+      </c>
+      <c r="O6">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="P6">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="Q6">
+        <v>13811.00775758152</v>
+      </c>
+      <c r="R6">
+        <v>124299.0698182337</v>
+      </c>
+      <c r="S6">
+        <v>0.8626686716605672</v>
+      </c>
+      <c r="T6">
+        <v>0.8626686716605672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>771.4717003333334</v>
+      </c>
+      <c r="H7">
+        <v>2314.415101</v>
+      </c>
+      <c r="I7">
+        <v>0.8866485810946614</v>
+      </c>
+      <c r="J7">
+        <v>0.8866485810946614</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01128333333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.03385</v>
+      </c>
+      <c r="O7">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="P7">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="Q7">
+        <v>8.704772352094444</v>
+      </c>
+      <c r="R7">
+        <v>78.34295116884999</v>
+      </c>
+      <c r="S7">
+        <v>0.0005437209604032488</v>
+      </c>
+      <c r="T7">
+        <v>0.0005437209604032488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>771.4717003333334</v>
+      </c>
+      <c r="H8">
+        <v>2314.415101</v>
+      </c>
+      <c r="I8">
+        <v>0.8866485810946614</v>
+      </c>
+      <c r="J8">
+        <v>0.8866485810946614</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.3789536666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.136861</v>
+      </c>
+      <c r="O8">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="P8">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="Q8">
+        <v>292.3520295708846</v>
+      </c>
+      <c r="R8">
+        <v>2631.168266137961</v>
+      </c>
+      <c r="S8">
+        <v>0.01826100900339728</v>
+      </c>
+      <c r="T8">
+        <v>0.01826100900339728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>771.4717003333334</v>
+      </c>
+      <c r="H9">
+        <v>2314.415101</v>
+      </c>
+      <c r="I9">
+        <v>0.8866485810946614</v>
+      </c>
+      <c r="J9">
+        <v>0.8866485810946614</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1073956666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.322187</v>
+      </c>
+      <c r="O9">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="P9">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="Q9">
+        <v>82.85271757176523</v>
+      </c>
+      <c r="R9">
+        <v>745.674458145887</v>
+      </c>
+      <c r="S9">
+        <v>0.005175179470293694</v>
+      </c>
+      <c r="T9">
+        <v>0.005175179470293694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4146736666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.244021</v>
+      </c>
+      <c r="I10">
+        <v>0.0004765823788590816</v>
+      </c>
+      <c r="J10">
+        <v>0.0004765823788590817</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.90215733333334</v>
+      </c>
+      <c r="N10">
+        <v>53.70647200000001</v>
+      </c>
+      <c r="O10">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="P10">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="Q10">
+        <v>7.423553222656889</v>
+      </c>
+      <c r="R10">
+        <v>66.81197900391201</v>
+      </c>
+      <c r="S10">
+        <v>0.0004636929404427742</v>
+      </c>
+      <c r="T10">
+        <v>0.0004636929404427743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4146736666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.244021</v>
+      </c>
+      <c r="I11">
+        <v>0.0004765823788590816</v>
+      </c>
+      <c r="J11">
+        <v>0.0004765823788590817</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01128333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.03385</v>
+      </c>
+      <c r="O11">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="P11">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="Q11">
+        <v>0.004678901205555555</v>
+      </c>
+      <c r="R11">
+        <v>0.04211011085</v>
+      </c>
+      <c r="S11">
+        <v>2.922553921245824E-07</v>
+      </c>
+      <c r="T11">
+        <v>2.922553921245824E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4146736666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.244021</v>
+      </c>
+      <c r="I12">
+        <v>0.0004765823788590816</v>
+      </c>
+      <c r="J12">
+        <v>0.0004765823788590817</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.3789536666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.136861</v>
+      </c>
+      <c r="O12">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="P12">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="Q12">
+        <v>0.1571421064534444</v>
+      </c>
+      <c r="R12">
+        <v>1.414278958081</v>
+      </c>
+      <c r="S12">
+        <v>9.815472890580349E-06</v>
+      </c>
+      <c r="T12">
+        <v>9.815472890580351E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4146736666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.244021</v>
+      </c>
+      <c r="I13">
+        <v>0.0004765823788590816</v>
+      </c>
+      <c r="J13">
+        <v>0.0004765823788590817</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1073956666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.322187</v>
+      </c>
+      <c r="O13">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="P13">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="Q13">
+        <v>0.04453415488077778</v>
+      </c>
+      <c r="R13">
+        <v>0.400807393927</v>
+      </c>
+      <c r="S13">
+        <v>2.781710133602447E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.781710133602447E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>92.05234666666666</v>
+      </c>
+      <c r="H14">
+        <v>276.15704</v>
+      </c>
+      <c r="I14">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="J14">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.90215733333334</v>
+      </c>
+      <c r="N14">
+        <v>53.70647200000001</v>
+      </c>
+      <c r="O14">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="P14">
+        <v>0.9729544377046332</v>
+      </c>
+      <c r="Q14">
+        <v>1647.935592929209</v>
+      </c>
+      <c r="R14">
+        <v>14831.42033636288</v>
+      </c>
+      <c r="S14">
+        <v>0.1029340098773034</v>
+      </c>
+      <c r="T14">
+        <v>0.1029340098773034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>92.05234666666666</v>
+      </c>
+      <c r="H15">
+        <v>276.15704</v>
+      </c>
+      <c r="I15">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="J15">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01128333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.03385</v>
+      </c>
+      <c r="O15">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="P15">
+        <v>0.0006132316365204891</v>
+      </c>
+      <c r="Q15">
+        <v>1.038657311555556</v>
+      </c>
+      <c r="R15">
+        <v>9.347915803999999</v>
+      </c>
+      <c r="S15">
+        <v>6.487702700610679E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.487702700610679E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>92.05234666666666</v>
+      </c>
+      <c r="H16">
+        <v>276.15704</v>
+      </c>
+      <c r="I16">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="J16">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.3789536666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.136861</v>
+      </c>
+      <c r="O16">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="P16">
+        <v>0.02059554302884253</v>
+      </c>
+      <c r="Q16">
+        <v>34.88357429460444</v>
+      </c>
+      <c r="R16">
+        <v>313.95216865144</v>
+      </c>
+      <c r="S16">
+        <v>0.002178911722280342</v>
+      </c>
+      <c r="T16">
+        <v>0.002178911722280342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>92.05234666666666</v>
+      </c>
+      <c r="H17">
+        <v>276.15704</v>
+      </c>
+      <c r="I17">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="J17">
+        <v>0.1057953033444633</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1073956666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.322187</v>
+      </c>
+      <c r="O17">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="P17">
+        <v>0.005836787630003747</v>
+      </c>
+      <c r="Q17">
+        <v>9.886023138497778</v>
+      </c>
+      <c r="R17">
+        <v>88.97420824648</v>
+      </c>
+      <c r="S17">
+        <v>0.0006175047178734573</v>
+      </c>
+      <c r="T17">
+        <v>0.0006175047178734573</v>
       </c>
     </row>
   </sheetData>
